--- a/Escritas em Normas Iso.29119-3/Gestão de teste_ iso.xlsx
+++ b/Escritas em Normas Iso.29119-3/Gestão de teste_ iso.xlsx
@@ -142,7 +142,7 @@
     <t>Com o "Site" aberto verificar se tem a proposta escrita em sua apresentação</t>
   </si>
   <si>
-    <t>A tela se adequa aquilo que foi apresentado</t>
+    <t>A tela se adequa aquilo que foi proposto</t>
   </si>
   <si>
     <t>A proposta está correta</t>
@@ -271,7 +271,7 @@
     <t>Deverá aparecer a palavra "Peso" no campo de inserção</t>
   </si>
   <si>
-    <t>A palavra "Peso" deverá aparecer</t>
+    <t>A palavra "Peso" deverá aparecer como indicador</t>
   </si>
   <si>
     <t>A palavra "Peso" aparece no campo de inserção de números</t>
@@ -283,10 +283,10 @@
     <t>O campo deverá ficar habilitado a escrita</t>
   </si>
   <si>
-    <t>Cursor de texto deverá ficar ativo e a palavra texto desaparecerá</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colocar o " Peso " igual a 85 e clicar em calcular </t>
+    <t>Cursor de texto deverá ficar ativo e a palavra "Peso" desaparecerá</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colocar o " Peso " igual a 85kg e clicar em calcular </t>
   </si>
   <si>
     <t>Obter valores de ml e litros de água</t>
@@ -381,7 +381,7 @@
     <t>Após calcular o valor inserido ainda continua no campo de inserção de números</t>
   </si>
   <si>
-    <t>Apagar o campor de inserção de números e não inserir nenhum valor</t>
+    <t>Apagar o campo de inserção de números e não inserir nenhum valor, clicando em calcular</t>
   </si>
   <si>
     <t>Irá aparecer a mensagem 'Insira um valor"</t>
@@ -390,7 +390,7 @@
     <t>Mensagem "O resultado é igual a 0 mL / 0 Litros"</t>
   </si>
   <si>
-    <t xml:space="preserve">Ao colocar o " Peso " em valor abaixo de 0 </t>
+    <t>Ao colocar o " Peso " em valor abaixo de 0 e clicar em calcular</t>
   </si>
   <si>
     <t>Irá aparecer a mensagem " O número não pode ser menor que 0 kg "</t>
@@ -399,7 +399,7 @@
     <t>Mensagem " O número não pode ser menor que 0 kg "</t>
   </si>
   <si>
-    <t>Ao colocar um valor grande como " 700 "kg</t>
+    <t>Ao colocar o " Peso " em valor  como " 700 "kg e clicar em calcular</t>
   </si>
   <si>
     <t>Irá aparecer a mensagem " O número não pode ser maior do que 700 kg "</t>
@@ -408,7 +408,7 @@
     <t>Não teve nenhuma ação</t>
   </si>
   <si>
-    <t xml:space="preserve">Colocar o " Peso " igual a 100 e clicar em calcular </t>
+    <t xml:space="preserve">Colocar o " Peso " igual a 100klg e clicar em calcular </t>
   </si>
   <si>
     <t>Mensagem na tela: O resultado é igual a 3500 mL / 3.5 Litros</t>

--- a/Escritas em Normas Iso.29119-3/Gestão de teste_ iso.xlsx
+++ b/Escritas em Normas Iso.29119-3/Gestão de teste_ iso.xlsx
@@ -1,14 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FireII\Documents\Projetos\Plano_de_test_Site-----Matematica_da_agua\Escritas em Normas Iso.29119-3\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D0B6C9D-88BA-4FDD-AC02-3D865D5C1ABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Realizar o Acesso ao site" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Realizar o Calculo do Site" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Verificar campos e botão" sheetId="3" r:id="rId6"/>
+    <sheet name="Realizar o Acesso ao site" sheetId="1" r:id="rId1"/>
+    <sheet name="Realizar o Calculo no Site" sheetId="2" r:id="rId2"/>
+    <sheet name="Verificar campos e botão" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="HwMrf4lJIaPamr4Kg58d35c59pqh0S+YjW2+Z2eDzmo="/>
@@ -22,18 +31,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <b/>
+        <sz val="11"/>
         <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Projeto:</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <sz val="11"/>
         <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> Cor e Cor web site</t>
     </r>
@@ -50,18 +59,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <b/>
+        <sz val="11"/>
         <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Titulo :</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <sz val="11"/>
         <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> Realizar o Acesso ao site</t>
     </r>
@@ -72,17 +81,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <b/>
+        <sz val="10"/>
         <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Rastreabilidade: </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b val="0"/>
+        <sz val="10"/>
         <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>REQ - 1</t>
     </r>
@@ -93,17 +103,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <b/>
+        <sz val="10"/>
         <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Prioridade : </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b val="0"/>
+        <sz val="10"/>
         <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Alta</t>
     </r>
@@ -158,13 +169,14 @@
   </si>
   <si>
     <r>
-      <rPr/>
       <t xml:space="preserve">Site : </t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://programacaogabriel.github.io/Site---matematica_da_agua/</t>
     </r>
@@ -172,18 +184,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <b/>
+        <sz val="11"/>
         <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Projeto:</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <sz val="11"/>
         <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> Cor e Cor web site</t>
     </r>
@@ -194,18 +206,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <b/>
+        <sz val="11"/>
         <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Titulo :</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <sz val="11"/>
         <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> Realizar o Calculo do Site</t>
     </r>
@@ -213,17 +225,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <b/>
+        <sz val="10"/>
         <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Rastreabilidade: </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b val="0"/>
+        <sz val="10"/>
         <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>REQ - 1</t>
     </r>
@@ -234,17 +247,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <b/>
+        <sz val="10"/>
         <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Prioridade : </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b val="0"/>
+        <sz val="10"/>
         <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Alta</t>
     </r>
@@ -265,9 +279,6 @@
     <t>Letras não serão obtidos</t>
   </si>
   <si>
-    <t>Não foi possível digitar qualquer letra no campo</t>
-  </si>
-  <si>
     <t>Deverá aparecer a palavra "Peso" no campo de inserção</t>
   </si>
   <si>
@@ -300,18 +311,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <b/>
+        <sz val="11"/>
         <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Projeto:</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <sz val="11"/>
         <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> Cor e Cor web site</t>
     </r>
@@ -319,18 +330,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <b/>
+        <sz val="11"/>
         <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Titulo :</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <sz val="11"/>
         <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> Realizar o Acesso ao site</t>
     </r>
@@ -338,17 +349,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <b/>
+        <sz val="10"/>
         <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Rastreabilidade: </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b val="0"/>
+        <sz val="10"/>
         <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>REQ - 2</t>
     </r>
@@ -356,17 +368,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <b/>
+        <sz val="10"/>
         <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Prioridade : </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b val="0"/>
+        <sz val="10"/>
         <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Alta</t>
     </r>
@@ -415,64 +428,101 @@
   </si>
   <si>
     <t>O site precisará estar disponivel e realizar diversas contas e campos juntamente com botões devem estar conforme a proposta</t>
+  </si>
+  <si>
+    <t>Foi possível digitar qualquer letra no campo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="13">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FF1F1F1F"/>
       <name val="&quot;Google Sans&quot;"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -498,9 +548,21 @@
         <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
-    <border/>
+  <borders count="3">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -514,106 +576,94 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="21">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -803,29 +853,32 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="64.25"/>
-    <col customWidth="1" min="2" max="2" width="58.38"/>
-    <col customWidth="1" min="3" max="3" width="58.25"/>
-    <col customWidth="1" min="4" max="4" width="29.0"/>
-    <col customWidth="1" min="5" max="6" width="12.63"/>
+    <col min="1" max="1" width="64.28515625" customWidth="1"/>
+    <col min="2" max="2" width="58.42578125" customWidth="1"/>
+    <col min="3" max="3" width="58.28515625" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="6" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1"/>
-    <row r="2" ht="15.75" customHeight="1"/>
-    <row r="3" ht="15.75" customHeight="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="2" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -836,126 +889,126 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" ht="15.75" customHeight="1"/>
-    <row r="9" ht="15.75" customHeight="1"/>
-    <row r="10" ht="15.75" customHeight="1"/>
-    <row r="11" ht="15.75" customHeight="1"/>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="7" t="s">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="9" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="10" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="11" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="12" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B13" s="11" t="s">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A13" s="7">
+        <v>1</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="12">
-        <v>2.0</v>
-      </c>
-      <c r="B14" s="14" t="s">
+    <row r="14" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A14" s="7">
+        <v>2</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" ht="15.75" customHeight="1"/>
-    <row r="16" ht="15.75" customHeight="1"/>
-    <row r="17" ht="15.75" customHeight="1"/>
-    <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="7" t="s">
+    <row r="15" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="16" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="17" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="18" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A18" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="12" t="s">
+    <row r="19" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A19" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="15"/>
-    </row>
-    <row r="21" ht="15.75" customHeight="1"/>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="16" t="s">
+    <row r="20" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A20" s="11"/>
+    </row>
+    <row r="21" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="22" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A22" s="12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="17" t="s">
+    <row r="23" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A23" s="13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="24" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="25" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="26" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="27" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="28" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="29" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="30" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="31" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="32" spans="1:1" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -1926,225 +1979,234 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="A23"/>
+    <hyperlink ref="A23" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A4:F35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="64.25"/>
-    <col customWidth="1" min="2" max="2" width="68.75"/>
-    <col customWidth="1" min="3" max="3" width="44.0"/>
-    <col customWidth="1" min="4" max="4" width="73.75"/>
+    <col min="1" max="1" width="64.28515625" customWidth="1"/>
+    <col min="2" max="2" width="68.7109375" customWidth="1"/>
+    <col min="3" max="3" width="44" customWidth="1"/>
+    <col min="4" max="4" width="73.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4">
+    <row r="4" spans="1:6" ht="15" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:6" ht="15" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="19" t="s">
+    <row r="8" spans="1:6">
+      <c r="A8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="7" t="s">
+    <row r="13" spans="1:6">
+      <c r="A13" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="B14" s="14" t="s">
+    <row r="14" spans="1:6" ht="13.5" thickBot="1">
+      <c r="A14" s="8">
+        <v>1</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="11">
-        <v>2.0</v>
-      </c>
-      <c r="B15" s="14" t="s">
+    <row r="15" spans="1:6" ht="13.5" thickBot="1">
+      <c r="A15" s="8">
+        <v>2</v>
+      </c>
+      <c r="B15" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="18"/>
+    </row>
+    <row r="16" spans="1:6" ht="12.75">
+      <c r="A16" s="8">
+        <v>3</v>
+      </c>
+      <c r="B16" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="C16" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="11">
-        <v>3.0</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="11" t="s">
+    <row r="17" spans="1:6">
+      <c r="A17" s="7">
+        <v>4</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="C17" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="12">
-        <v>4.0</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="12" t="s">
+    <row r="18" spans="1:6">
+      <c r="A18" s="7">
+        <v>5</v>
+      </c>
+      <c r="B18" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="C18" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="12">
-        <v>5.0</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="11" t="s">
+    <row r="21" spans="1:6">
+      <c r="A21" s="8"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="8"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="22"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="22"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="22"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="22"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="22"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="22"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="22"/>
+    </row>
+    <row r="25" spans="1:6" ht="12.75">
+      <c r="A25" s="8"/>
+      <c r="D25" s="20"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="8"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="8"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="8"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="8"/>
+    </row>
+    <row r="35" spans="2:2" ht="15" customHeight="1">
+      <c r="B35" s="20"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A4:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="64.25"/>
-    <col customWidth="1" min="2" max="2" width="68.75"/>
-    <col customWidth="1" min="3" max="3" width="50.5"/>
-    <col customWidth="1" min="4" max="4" width="58.63"/>
+    <col min="1" max="1" width="64.28515625" customWidth="1"/>
+    <col min="2" max="2" width="68.7109375" customWidth="1"/>
+    <col min="3" max="3" width="50.42578125" customWidth="1"/>
+    <col min="4" max="4" width="58.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4">
+    <row r="4" spans="1:6" ht="15" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
@@ -2153,173 +2215,173 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7">
+    <row r="6" spans="1:6" ht="15" customHeight="1">
+      <c r="A6" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="5" t="s">
+    <row r="13" spans="1:6">
+      <c r="A13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="7">
+        <v>1</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="9" t="s">
+      <c r="C14" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="8">
+        <v>2</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" s="13" t="s">
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="8">
+        <v>3</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="17"/>
+      <c r="F16" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="11">
-        <v>2.0</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15" s="23" t="s">
+    <row r="17" spans="1:6">
+      <c r="A17" s="8">
+        <v>4</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="11">
-        <v>3.0</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="E16" s="25"/>
-      <c r="F16" s="13" t="s">
+    <row r="18" spans="1:6">
+      <c r="A18" s="7">
+        <v>5</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="11">
-        <v>4.0</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="E17" s="23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="12">
-        <v>5.0</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="11" t="s">
+    <row r="20" spans="1:6">
+      <c r="A20" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F18" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="22"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="22"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="22"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="22"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="22"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="22"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="22"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="22"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="8"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="8"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="8"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="8"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="8"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="8"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="8"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="8"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/Escritas em Normas Iso.29119-3/Gestão de teste_ iso.xlsx
+++ b/Escritas em Normas Iso.29119-3/Gestão de teste_ iso.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FireII\Documents\Projetos\Plano_de_test_Site-----Matematica_da_agua\Escritas em Normas Iso.29119-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D0B6C9D-88BA-4FDD-AC02-3D865D5C1ABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E7C6C0F-B2AC-4AD1-BB8D-070C6CC084DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Realizar o Acesso ao site" sheetId="1" r:id="rId1"/>
@@ -869,7 +869,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="64.28515625" customWidth="1"/>
+    <col min="1" max="1" width="77.7109375" customWidth="1"/>
     <col min="2" max="2" width="58.42578125" customWidth="1"/>
     <col min="3" max="3" width="58.28515625" customWidth="1"/>
     <col min="4" max="4" width="29" customWidth="1"/>
@@ -1992,7 +1992,7 @@
   </sheetPr>
   <dimension ref="A4:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
@@ -2015,7 +2015,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" ht="14.25">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -2025,7 +2025,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" ht="12.75">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -2033,7 +2033,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" ht="12.75">
       <c r="A8" s="4" t="s">
         <v>30</v>
       </c>
@@ -2041,7 +2041,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" ht="12.75">
       <c r="A13" s="5" t="s">
         <v>9</v>
       </c>
@@ -2113,7 +2113,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" ht="12.75">
       <c r="A17" s="7">
         <v>4</v>
       </c>
@@ -2130,7 +2130,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" ht="12.75">
       <c r="A18" s="7">
         <v>5</v>
       </c>
@@ -2147,18 +2147,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" ht="12.75">
       <c r="A21" s="8"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" ht="12.75">
       <c r="A22" s="8"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" ht="12.75">
       <c r="A23" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" ht="12.75">
       <c r="A24" s="7" t="s">
         <v>46</v>
       </c>
@@ -2167,16 +2167,16 @@
       <c r="A25" s="8"/>
       <c r="D25" s="20"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" ht="12.75">
       <c r="A26" s="8"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" ht="12.75">
       <c r="A27" s="8"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" ht="12.75">
       <c r="A28" s="8"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" ht="12.75">
       <c r="A29" s="8"/>
     </row>
     <row r="35" spans="2:2" ht="15" customHeight="1">
@@ -2194,7 +2194,9 @@
   </sheetPr>
   <dimension ref="A4:F29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -2215,7 +2217,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" ht="14.25">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -2225,7 +2227,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" ht="12.75">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -2233,7 +2235,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" ht="12.75">
       <c r="A8" s="4" t="s">
         <v>30</v>
       </c>
@@ -2241,7 +2243,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" ht="12.75">
       <c r="A13" s="5" t="s">
         <v>9</v>
       </c>
@@ -2261,7 +2263,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" ht="12.75">
       <c r="A14" s="7">
         <v>1</v>
       </c>
@@ -2278,7 +2280,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" ht="12.75">
       <c r="A15" s="8">
         <v>2</v>
       </c>
@@ -2295,7 +2297,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" ht="12.75">
       <c r="A16" s="8">
         <v>3</v>
       </c>
@@ -2313,7 +2315,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" ht="12.75">
       <c r="A17" s="8">
         <v>4</v>
       </c>
@@ -2330,7 +2332,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" ht="12.75">
       <c r="A18" s="7">
         <v>5</v>
       </c>
@@ -2347,38 +2349,38 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" ht="12.75">
       <c r="A20" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" ht="12.75">
       <c r="A21" s="7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" ht="12.75">
       <c r="A22" s="8"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" ht="12.75">
       <c r="A23" s="8"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" ht="12.75">
       <c r="A24" s="8"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" ht="12.75">
       <c r="A25" s="8"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" ht="12.75">
       <c r="A26" s="8"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" ht="12.75">
       <c r="A27" s="8"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" ht="12.75">
       <c r="A28" s="8"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" ht="12.75">
       <c r="A29" s="8"/>
     </row>
   </sheetData>

--- a/Escritas em Normas Iso.29119-3/Gestão de teste_ iso.xlsx
+++ b/Escritas em Normas Iso.29119-3/Gestão de teste_ iso.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FireII\Documents\Projetos\Plano_de_test_Site-----Matematica_da_agua\Escritas em Normas Iso.29119-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E7C6C0F-B2AC-4AD1-BB8D-070C6CC084DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B18E7FAD-902D-45BE-8DB6-61A69F197E80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Realizar o Acesso ao site" sheetId="1" r:id="rId1"/>
@@ -27,26 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="67">
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>Projeto:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> Cor e Cor web site</t>
-    </r>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="66">
   <si>
     <t>ID: CT - 1</t>
   </si>
@@ -182,25 +163,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>Projeto:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> Cor e Cor web site</t>
-    </r>
-  </si>
-  <si>
     <t>ID: CT - 2</t>
   </si>
   <si>
@@ -312,44 +274,6 @@
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>Projeto:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> Cor e Cor web site</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>Titulo :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> Realizar o Acesso ao site</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
@@ -431,6 +355,47 @@
   </si>
   <si>
     <t>Foi possível digitar qualquer letra no campo</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Projeto:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> Matemática da Água web site</t>
+    </r>
+  </si>
+  <si>
+    <t>ID: CT - 3</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Titulo :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> Verificar campos e botão</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -865,7 +830,9 @@
   </sheetPr>
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -880,39 +847,39 @@
     <row r="2" spans="1:6" ht="15.75" customHeight="1"/>
     <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="A7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1"/>
@@ -921,22 +888,22 @@
     <row r="11" spans="1:6" ht="15.75" customHeight="1"/>
     <row r="12" spans="1:6" ht="15.75" customHeight="1">
       <c r="A12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="C12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="D12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="E12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="F12" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1">
@@ -944,16 +911,16 @@
         <v>1</v>
       </c>
       <c r="B13" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="D13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="F13" s="9" t="s">
         <v>17</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1">
@@ -961,16 +928,16 @@
         <v>2</v>
       </c>
       <c r="B14" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="D14" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="10" t="s">
-        <v>21</v>
-      </c>
       <c r="F14" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1"/>
@@ -978,12 +945,12 @@
     <row r="17" spans="1:1" ht="15.75" customHeight="1"/>
     <row r="18" spans="1:1" ht="15.75" customHeight="1">
       <c r="A18" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="15.75" customHeight="1">
       <c r="A19" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="15.75" customHeight="1">
@@ -992,12 +959,12 @@
     <row r="21" spans="1:1" ht="15.75" customHeight="1"/>
     <row r="22" spans="1:1" ht="15.75" customHeight="1">
       <c r="A22" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="15.75" customHeight="1">
       <c r="A23" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15.75" customHeight="1"/>
@@ -1993,7 +1960,7 @@
   <dimension ref="A4:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -2006,59 +1973,59 @@
   <sheetData>
     <row r="4" spans="1:6" ht="15" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="14.25">
       <c r="A5" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="12.75">
       <c r="A7" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="12.75">
       <c r="A8" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="12.75">
       <c r="A13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="C13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="D13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="E13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="F13" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="13.5" thickBot="1">
@@ -2066,16 +2033,16 @@
         <v>1</v>
       </c>
       <c r="B14" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>34</v>
-      </c>
       <c r="F14" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="13.5" thickBot="1">
@@ -2083,16 +2050,16 @@
         <v>2</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F15" s="18"/>
     </row>
@@ -2101,16 +2068,16 @@
         <v>3</v>
       </c>
       <c r="B16" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>39</v>
-      </c>
       <c r="F16" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="12.75">
@@ -2118,16 +2085,16 @@
         <v>4</v>
       </c>
       <c r="B17" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="F17" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="12.75">
@@ -2135,16 +2102,16 @@
         <v>5</v>
       </c>
       <c r="B18" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>45</v>
-      </c>
       <c r="F18" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="12.75">
@@ -2155,12 +2122,12 @@
     </row>
     <row r="23" spans="1:6" ht="12.75">
       <c r="A23" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="12.75">
       <c r="A24" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="12.75">
@@ -2194,8 +2161,8 @@
   </sheetPr>
   <dimension ref="A4:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -2208,59 +2175,62 @@
   <sheetData>
     <row r="4" spans="1:6" ht="15" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="14.25">
       <c r="A5" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="12.75">
       <c r="A7" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="12.75">
       <c r="A8" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>50</v>
-      </c>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" customHeight="1">
+      <c r="A11" s="20"/>
     </row>
     <row r="13" spans="1:6" ht="12.75">
       <c r="A13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="C13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="D13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="E13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="F13" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="12.75">
@@ -2268,16 +2238,16 @@
         <v>1</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="12.75">
@@ -2285,16 +2255,16 @@
         <v>2</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="12.75">
@@ -2302,17 +2272,17 @@
         <v>3</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E16" s="17"/>
       <c r="F16" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="12.75">
@@ -2320,16 +2290,16 @@
         <v>4</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="12.75">
@@ -2337,26 +2307,26 @@
         <v>5</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="12.75">
       <c r="A20" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="12.75">
       <c r="A21" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="12.75">
